--- a/ranked-filtered-scores.xlsx
+++ b/ranked-filtered-scores.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Ranked Scores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ranked Scores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="137">
   <si>
     <t>Names</t>
   </si>
@@ -432,22 +431,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -462,26 +465,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -769,18 +781,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -794,7 +800,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.07253</v>
       </c>
     </row>
@@ -802,7 +808,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.13359</v>
       </c>
     </row>
@@ -810,7 +816,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.13782</v>
       </c>
     </row>
@@ -818,7 +824,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.13984</v>
       </c>
     </row>
@@ -826,7 +832,7 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.1411</v>
       </c>
     </row>
@@ -834,7 +840,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.14503</v>
       </c>
     </row>
@@ -842,7 +848,7 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.14632</v>
       </c>
     </row>
@@ -850,7 +856,7 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.14691</v>
       </c>
     </row>
@@ -858,7 +864,7 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.15054</v>
       </c>
     </row>
@@ -866,7 +872,7 @@
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.1512</v>
       </c>
     </row>
@@ -874,7 +880,7 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.15125</v>
       </c>
     </row>
@@ -882,7 +888,7 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.15221</v>
       </c>
     </row>
@@ -890,7 +896,7 @@
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.15622</v>
       </c>
     </row>
@@ -898,7 +904,7 @@
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.1569</v>
       </c>
     </row>
@@ -906,7 +912,7 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.15715</v>
       </c>
     </row>
@@ -914,7 +920,7 @@
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.15727</v>
       </c>
     </row>
@@ -922,7 +928,7 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.15737</v>
       </c>
     </row>
@@ -930,7 +936,7 @@
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.15739</v>
       </c>
     </row>
@@ -938,7 +944,7 @@
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.15821</v>
       </c>
     </row>
@@ -946,7 +952,7 @@
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.15953</v>
       </c>
     </row>
@@ -954,7 +960,7 @@
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.15988</v>
       </c>
     </row>
@@ -962,7 +968,7 @@
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.16045</v>
       </c>
     </row>
@@ -970,7 +976,7 @@
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.16085</v>
       </c>
     </row>
@@ -978,7 +984,7 @@
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.16114</v>
       </c>
     </row>
@@ -986,7 +992,7 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.16142</v>
       </c>
     </row>
@@ -994,7 +1000,7 @@
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.16197</v>
       </c>
     </row>
@@ -1002,7 +1008,7 @@
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.16243</v>
       </c>
     </row>
@@ -1010,7 +1016,7 @@
       <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.16268</v>
       </c>
     </row>
@@ -1018,7 +1024,7 @@
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.16288</v>
       </c>
     </row>
@@ -1026,7 +1032,7 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.16305</v>
       </c>
     </row>
@@ -1034,7 +1040,7 @@
       <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.16721</v>
       </c>
     </row>
@@ -1042,7 +1048,7 @@
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.16755</v>
       </c>
     </row>
@@ -1050,7 +1056,7 @@
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.16784</v>
       </c>
     </row>
@@ -1058,7 +1064,7 @@
       <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.16797</v>
       </c>
     </row>
@@ -1066,7 +1072,7 @@
       <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.16805</v>
       </c>
     </row>
@@ -1074,7 +1080,7 @@
       <c r="A37" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.16845</v>
       </c>
     </row>
@@ -1082,7 +1088,7 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.16916</v>
       </c>
     </row>
@@ -1090,7 +1096,7 @@
       <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.16948</v>
       </c>
     </row>
@@ -1098,7 +1104,7 @@
       <c r="A40" t="s">
         <v>17</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.1714</v>
       </c>
     </row>
@@ -1106,7 +1112,7 @@
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.17157</v>
       </c>
     </row>
@@ -1114,7 +1120,7 @@
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.17174</v>
       </c>
     </row>
@@ -1122,7 +1128,7 @@
       <c r="A43" t="s">
         <v>18</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.17236</v>
       </c>
     </row>
@@ -1130,7 +1136,7 @@
       <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.17269</v>
       </c>
     </row>
@@ -1138,7 +1144,7 @@
       <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.17321</v>
       </c>
     </row>
@@ -1146,7 +1152,7 @@
       <c r="A46" t="s">
         <v>3</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.1736</v>
       </c>
     </row>
@@ -1154,7 +1160,7 @@
       <c r="A47" t="s">
         <v>19</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.17394</v>
       </c>
     </row>
@@ -1162,7 +1168,7 @@
       <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0.17521</v>
       </c>
     </row>
@@ -1170,7 +1176,7 @@
       <c r="A49" t="s">
         <v>21</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>0.17526</v>
       </c>
     </row>
@@ -1178,7 +1184,7 @@
       <c r="A50" t="s">
         <v>22</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>0.17574</v>
       </c>
     </row>
@@ -1186,7 +1192,7 @@
       <c r="A51" t="s">
         <v>23</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>0.17778</v>
       </c>
     </row>
@@ -1194,7 +1200,7 @@
       <c r="A52" t="s">
         <v>22</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>0.17875</v>
       </c>
     </row>
@@ -1202,7 +1208,7 @@
       <c r="A53" t="s">
         <v>24</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>0.17902</v>
       </c>
     </row>
@@ -1210,7 +1216,7 @@
       <c r="A54" t="s">
         <v>2</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>0.18082</v>
       </c>
     </row>
@@ -1218,7 +1224,7 @@
       <c r="A55" t="s">
         <v>25</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>0.1814</v>
       </c>
     </row>
@@ -1226,7 +1232,7 @@
       <c r="A56" t="s">
         <v>2</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>0.18141</v>
       </c>
     </row>
@@ -1234,7 +1240,7 @@
       <c r="A57" t="s">
         <v>26</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>0.18237</v>
       </c>
     </row>
@@ -1242,7 +1248,7 @@
       <c r="A58" t="s">
         <v>3</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>0.18462</v>
       </c>
     </row>
@@ -1250,7 +1256,7 @@
       <c r="A59" t="s">
         <v>9</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>0.18474</v>
       </c>
     </row>
@@ -1258,7 +1264,7 @@
       <c r="A60" t="s">
         <v>27</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>0.18588</v>
       </c>
     </row>
@@ -1266,7 +1272,7 @@
       <c r="A61" t="s">
         <v>28</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>0.18725</v>
       </c>
     </row>
@@ -1274,7 +1280,7 @@
       <c r="A62" t="s">
         <v>29</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>0.18744</v>
       </c>
     </row>
@@ -1282,7 +1288,7 @@
       <c r="A63" t="s">
         <v>30</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>0.18851</v>
       </c>
     </row>
@@ -1290,7 +1296,7 @@
       <c r="A64" t="s">
         <v>31</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>0.18885</v>
       </c>
     </row>
@@ -1298,7 +1304,7 @@
       <c r="A65" t="s">
         <v>32</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>0.18929</v>
       </c>
     </row>
@@ -1306,7 +1312,7 @@
       <c r="A66" t="s">
         <v>33</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>0.19046</v>
       </c>
     </row>
@@ -1314,7 +1320,7 @@
       <c r="A67" t="s">
         <v>4</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>0.19172</v>
       </c>
     </row>
@@ -1322,7 +1328,7 @@
       <c r="A68" t="s">
         <v>34</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>0.1919</v>
       </c>
     </row>
@@ -1330,7 +1336,7 @@
       <c r="A69" t="s">
         <v>35</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>0.19254</v>
       </c>
     </row>
@@ -1338,7 +1344,7 @@
       <c r="A70" t="s">
         <v>18</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>0.19332</v>
       </c>
     </row>
@@ -1346,7 +1352,7 @@
       <c r="A71" t="s">
         <v>36</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>0.19335</v>
       </c>
     </row>
@@ -1354,7 +1360,7 @@
       <c r="A72" t="s">
         <v>21</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>0.1963</v>
       </c>
     </row>
@@ -1362,7 +1368,7 @@
       <c r="A73" t="s">
         <v>37</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>0.19635</v>
       </c>
     </row>
@@ -1370,7 +1376,7 @@
       <c r="A74" t="s">
         <v>26</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>0.19659</v>
       </c>
     </row>
@@ -1378,7 +1384,7 @@
       <c r="A75" t="s">
         <v>38</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>0.19676</v>
       </c>
     </row>
@@ -1386,7 +1392,7 @@
       <c r="A76" t="s">
         <v>4</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>0.19764</v>
       </c>
     </row>
@@ -1394,7 +1400,7 @@
       <c r="A77" t="s">
         <v>39</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>0.19888</v>
       </c>
     </row>
@@ -1402,7 +1408,7 @@
       <c r="A78" t="s">
         <v>40</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>0.199</v>
       </c>
     </row>
@@ -1410,7 +1416,7 @@
       <c r="A79" t="s">
         <v>4</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>0.19907</v>
       </c>
     </row>
@@ -1418,7 +1424,7 @@
       <c r="A80" t="s">
         <v>41</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>0.19915</v>
       </c>
     </row>
@@ -1426,7 +1432,7 @@
       <c r="A81" t="s">
         <v>42</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>0.19937</v>
       </c>
     </row>
@@ -1434,7 +1440,7 @@
       <c r="A82" t="s">
         <v>21</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>0.19959</v>
       </c>
     </row>
@@ -1442,7 +1448,7 @@
       <c r="A83" t="s">
         <v>37</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>0.19967</v>
       </c>
     </row>
@@ -1450,7 +1456,7 @@
       <c r="A84" t="s">
         <v>33</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>0.19976</v>
       </c>
     </row>
@@ -1458,7 +1464,7 @@
       <c r="A85" t="s">
         <v>22</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>0.20021</v>
       </c>
     </row>
@@ -1466,7 +1472,7 @@
       <c r="A86" t="s">
         <v>29</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>0.20053</v>
       </c>
     </row>
@@ -1474,7 +1480,7 @@
       <c r="A87" t="s">
         <v>41</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>0.20112</v>
       </c>
     </row>
@@ -1482,7 +1488,7 @@
       <c r="A88" t="s">
         <v>34</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>0.20171</v>
       </c>
     </row>
@@ -1490,7 +1496,7 @@
       <c r="A89" t="s">
         <v>43</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>0.20183</v>
       </c>
     </row>
@@ -1498,7 +1504,7 @@
       <c r="A90" t="s">
         <v>17</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>0.20243</v>
       </c>
     </row>
@@ -1506,7 +1512,7 @@
       <c r="A91" t="s">
         <v>44</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>0.20337</v>
       </c>
     </row>
@@ -1514,7 +1520,7 @@
       <c r="A92" t="s">
         <v>17</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>0.20349</v>
       </c>
     </row>
@@ -1522,7 +1528,7 @@
       <c r="A93" t="s">
         <v>45</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>0.20395</v>
       </c>
     </row>
@@ -1530,7 +1536,7 @@
       <c r="A94" t="s">
         <v>46</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>0.20419</v>
       </c>
     </row>
@@ -1538,7 +1544,7 @@
       <c r="A95" t="s">
         <v>47</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>0.20422</v>
       </c>
     </row>
@@ -1546,7 +1552,7 @@
       <c r="A96" t="s">
         <v>48</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>0.20514</v>
       </c>
     </row>
@@ -1554,7 +1560,7 @@
       <c r="A97" t="s">
         <v>49</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>0.20531</v>
       </c>
     </row>
@@ -1562,7 +1568,7 @@
       <c r="A98" t="s">
         <v>47</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>0.20645</v>
       </c>
     </row>
@@ -1570,7 +1576,7 @@
       <c r="A99" t="s">
         <v>22</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>0.20771</v>
       </c>
     </row>
@@ -1578,7 +1584,7 @@
       <c r="A100" t="s">
         <v>30</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>0.20877</v>
       </c>
     </row>
@@ -1586,7 +1592,7 @@
       <c r="A101" t="s">
         <v>50</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>0.20955</v>
       </c>
     </row>
@@ -1594,7 +1600,7 @@
       <c r="A102" t="s">
         <v>51</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>0.2101</v>
       </c>
     </row>
@@ -1602,7 +1608,7 @@
       <c r="A103" t="s">
         <v>52</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>0.2101</v>
       </c>
     </row>
@@ -1610,7 +1616,7 @@
       <c r="A104" t="s">
         <v>53</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>0.21042</v>
       </c>
     </row>
@@ -1618,7 +1624,7 @@
       <c r="A105" t="s">
         <v>32</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>0.21197</v>
       </c>
     </row>
@@ -1626,7 +1632,7 @@
       <c r="A106" t="s">
         <v>28</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>0.21233</v>
       </c>
     </row>
@@ -1634,7 +1640,7 @@
       <c r="A107" t="s">
         <v>54</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>0.21261</v>
       </c>
     </row>
@@ -1642,7 +1648,7 @@
       <c r="A108" t="s">
         <v>2</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>0.213</v>
       </c>
     </row>
@@ -1650,7 +1656,7 @@
       <c r="A109" t="s">
         <v>55</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>0.21382</v>
       </c>
     </row>
@@ -1658,7 +1664,7 @@
       <c r="A110" t="s">
         <v>6</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>0.21445</v>
       </c>
     </row>
@@ -1666,7 +1672,7 @@
       <c r="A111" t="s">
         <v>5</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>0.21449</v>
       </c>
     </row>
@@ -1674,7 +1680,7 @@
       <c r="A112" t="s">
         <v>50</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>0.2147</v>
       </c>
     </row>
@@ -1682,7 +1688,7 @@
       <c r="A113" t="s">
         <v>56</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>0.21512</v>
       </c>
     </row>
@@ -1690,7 +1696,7 @@
       <c r="A114" t="s">
         <v>57</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>0.21529</v>
       </c>
     </row>
@@ -1698,7 +1704,7 @@
       <c r="A115" t="s">
         <v>54</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>0.21565</v>
       </c>
     </row>
@@ -1706,7 +1712,7 @@
       <c r="A116" t="s">
         <v>5</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>0.21661</v>
       </c>
     </row>
@@ -1714,7 +1720,7 @@
       <c r="A117" t="s">
         <v>58</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>0.21664</v>
       </c>
     </row>
@@ -1722,7 +1728,7 @@
       <c r="A118" t="s">
         <v>59</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>0.21735</v>
       </c>
     </row>
@@ -1730,7 +1736,7 @@
       <c r="A119" t="s">
         <v>3</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>0.21767</v>
       </c>
     </row>
@@ -1738,7 +1744,7 @@
       <c r="A120" t="s">
         <v>5</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>0.2182</v>
       </c>
     </row>
@@ -1746,7 +1752,7 @@
       <c r="A121" t="s">
         <v>60</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>0.21862</v>
       </c>
     </row>
@@ -1754,7 +1760,7 @@
       <c r="A122" t="s">
         <v>3</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>0.2188</v>
       </c>
     </row>
@@ -1762,7 +1768,7 @@
       <c r="A123" t="s">
         <v>61</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>0.21886</v>
       </c>
     </row>
@@ -1770,7 +1776,7 @@
       <c r="A124" t="s">
         <v>6</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>0.21905</v>
       </c>
     </row>
@@ -1778,7 +1784,7 @@
       <c r="A125" t="s">
         <v>51</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>0.21937</v>
       </c>
     </row>
@@ -1786,7 +1792,7 @@
       <c r="A126" t="s">
         <v>55</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>0.21942</v>
       </c>
     </row>
@@ -1794,7 +1800,7 @@
       <c r="A127" t="s">
         <v>62</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>0.21987</v>
       </c>
     </row>
@@ -1802,7 +1808,7 @@
       <c r="A128" t="s">
         <v>63</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>0.21997</v>
       </c>
     </row>
@@ -1810,7 +1816,7 @@
       <c r="A129" t="s">
         <v>19</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>0.22103</v>
       </c>
     </row>
@@ -1818,7 +1824,7 @@
       <c r="A130" t="s">
         <v>52</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>0.22105</v>
       </c>
     </row>
@@ -1826,7 +1832,7 @@
       <c r="A131" t="s">
         <v>45</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>0.22122</v>
       </c>
     </row>
@@ -1834,7 +1840,7 @@
       <c r="A132" t="s">
         <v>63</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>0.22124</v>
       </c>
     </row>
@@ -1842,7 +1848,7 @@
       <c r="A133" t="s">
         <v>8</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>0.2215</v>
       </c>
     </row>
@@ -1850,7 +1856,7 @@
       <c r="A134" t="s">
         <v>5</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>0.222</v>
       </c>
     </row>
@@ -1858,7 +1864,7 @@
       <c r="A135" t="s">
         <v>5</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>0.22203</v>
       </c>
     </row>
@@ -1866,7 +1872,7 @@
       <c r="A136" t="s">
         <v>64</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>0.22223</v>
       </c>
     </row>
@@ -1874,7 +1880,7 @@
       <c r="A137" t="s">
         <v>65</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>0.22331</v>
       </c>
     </row>
@@ -1882,7 +1888,7 @@
       <c r="A138" t="s">
         <v>66</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>0.22336</v>
       </c>
     </row>
@@ -1890,7 +1896,7 @@
       <c r="A139" t="s">
         <v>50</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>0.22399</v>
       </c>
     </row>
@@ -1898,7 +1904,7 @@
       <c r="A140" t="s">
         <v>18</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>0.22525</v>
       </c>
     </row>
@@ -1906,7 +1912,7 @@
       <c r="A141" t="s">
         <v>67</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>0.22593</v>
       </c>
     </row>
@@ -1914,7 +1920,7 @@
       <c r="A142" t="s">
         <v>68</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>0.22799</v>
       </c>
     </row>
@@ -1922,7 +1928,7 @@
       <c r="A143" t="s">
         <v>69</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>0.22848</v>
       </c>
     </row>
@@ -1930,7 +1936,7 @@
       <c r="A144" t="s">
         <v>5</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>0.22897</v>
       </c>
     </row>
@@ -1938,7 +1944,7 @@
       <c r="A145" t="s">
         <v>70</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>0.23023</v>
       </c>
     </row>
@@ -1946,7 +1952,7 @@
       <c r="A146" t="s">
         <v>71</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>0.23048</v>
       </c>
     </row>
@@ -1954,7 +1960,7 @@
       <c r="A147" t="s">
         <v>70</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>0.23152</v>
       </c>
     </row>
@@ -1962,7 +1968,7 @@
       <c r="A148" t="s">
         <v>72</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>0.23153</v>
       </c>
     </row>
@@ -1970,7 +1976,7 @@
       <c r="A149" t="s">
         <v>73</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>0.23187</v>
       </c>
     </row>
@@ -1978,7 +1984,7 @@
       <c r="A150" t="s">
         <v>4</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>0.23227</v>
       </c>
     </row>
@@ -1986,7 +1992,7 @@
       <c r="A151" t="s">
         <v>74</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>0.23254</v>
       </c>
     </row>
@@ -1994,7 +2000,7 @@
       <c r="A152" t="s">
         <v>60</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>0.23255</v>
       </c>
     </row>
@@ -2002,7 +2008,7 @@
       <c r="A153" t="s">
         <v>75</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>0.23378</v>
       </c>
     </row>
@@ -2010,7 +2016,7 @@
       <c r="A154" t="s">
         <v>76</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>0.23437</v>
       </c>
     </row>
@@ -2018,7 +2024,7 @@
       <c r="A155" t="s">
         <v>43</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>0.23473</v>
       </c>
     </row>
@@ -2026,7 +2032,7 @@
       <c r="A156" t="s">
         <v>77</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>0.23502</v>
       </c>
     </row>
@@ -2034,7 +2040,7 @@
       <c r="A157" t="s">
         <v>78</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>0.23527</v>
       </c>
     </row>
@@ -2042,7 +2048,7 @@
       <c r="A158" t="s">
         <v>79</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>0.23762</v>
       </c>
     </row>
@@ -2050,7 +2056,7 @@
       <c r="A159" t="s">
         <v>80</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>0.23815</v>
       </c>
     </row>
@@ -2058,7 +2064,7 @@
       <c r="A160" t="s">
         <v>81</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>0.23839</v>
       </c>
     </row>
@@ -2066,7 +2072,7 @@
       <c r="A161" t="s">
         <v>18</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>0.24026</v>
       </c>
     </row>
@@ -2074,7 +2080,7 @@
       <c r="A162" t="s">
         <v>82</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>0.24085</v>
       </c>
     </row>
@@ -2082,7 +2088,7 @@
       <c r="A163" t="s">
         <v>83</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>0.24116</v>
       </c>
     </row>
@@ -2090,7 +2096,7 @@
       <c r="A164" t="s">
         <v>84</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>0.24156</v>
       </c>
     </row>
@@ -2098,7 +2104,7 @@
       <c r="A165" t="s">
         <v>85</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>0.2436</v>
       </c>
     </row>
@@ -2106,7 +2112,7 @@
       <c r="A166" t="s">
         <v>86</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>0.24716</v>
       </c>
     </row>
@@ -2114,7 +2120,7 @@
       <c r="A167" t="s">
         <v>71</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>0.24866</v>
       </c>
     </row>
@@ -2122,7 +2128,7 @@
       <c r="A168" t="s">
         <v>87</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>0.24878</v>
       </c>
     </row>
@@ -2130,7 +2136,7 @@
       <c r="A169" t="s">
         <v>88</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>0.24933</v>
       </c>
     </row>
@@ -2138,7 +2144,7 @@
       <c r="A170" t="s">
         <v>89</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>0.2498</v>
       </c>
     </row>
@@ -2146,7 +2152,7 @@
       <c r="A171" t="s">
         <v>90</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>0.25159</v>
       </c>
     </row>
@@ -2154,7 +2160,7 @@
       <c r="A172" t="s">
         <v>91</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>0.25168</v>
       </c>
     </row>
@@ -2162,7 +2168,7 @@
       <c r="A173" t="s">
         <v>4</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>0.25205</v>
       </c>
     </row>
@@ -2170,7 +2176,7 @@
       <c r="A174" t="s">
         <v>56</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>0.25266</v>
       </c>
     </row>
@@ -2178,7 +2184,7 @@
       <c r="A175" t="s">
         <v>92</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>0.25317</v>
       </c>
     </row>
@@ -2186,7 +2192,7 @@
       <c r="A176" t="s">
         <v>91</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>0.25334</v>
       </c>
     </row>
@@ -2194,7 +2200,7 @@
       <c r="A177" t="s">
         <v>80</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>0.25359</v>
       </c>
     </row>
@@ -2202,7 +2208,7 @@
       <c r="A178" t="s">
         <v>11</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>0.25491</v>
       </c>
     </row>
@@ -2210,7 +2216,7 @@
       <c r="A179" t="s">
         <v>93</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>0.25524</v>
       </c>
     </row>
@@ -2218,7 +2224,7 @@
       <c r="A180" t="s">
         <v>55</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>0.25575</v>
       </c>
     </row>
@@ -2226,7 +2232,7 @@
       <c r="A181" t="s">
         <v>92</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>0.25847</v>
       </c>
     </row>
@@ -2234,7 +2240,7 @@
       <c r="A182" t="s">
         <v>38</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>0.25859</v>
       </c>
     </row>
@@ -2242,7 +2248,7 @@
       <c r="A183" t="s">
         <v>94</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>0.26082</v>
       </c>
     </row>
@@ -2250,7 +2256,7 @@
       <c r="A184" t="s">
         <v>94</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>0.26145</v>
       </c>
     </row>
@@ -2258,7 +2264,7 @@
       <c r="A185" t="s">
         <v>3</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>0.26259</v>
       </c>
     </row>
@@ -2266,7 +2272,7 @@
       <c r="A186" t="s">
         <v>95</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>0.26273</v>
       </c>
     </row>
@@ -2274,7 +2280,7 @@
       <c r="A187" t="s">
         <v>96</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>0.26472</v>
       </c>
     </row>
@@ -2282,7 +2288,7 @@
       <c r="A188" t="s">
         <v>97</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>0.265</v>
       </c>
     </row>
@@ -2290,7 +2296,7 @@
       <c r="A189" t="s">
         <v>98</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>0.2675</v>
       </c>
     </row>
@@ -2298,7 +2304,7 @@
       <c r="A190" t="s">
         <v>53</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>0.26756</v>
       </c>
     </row>
@@ -2306,7 +2312,7 @@
       <c r="A191" t="s">
         <v>54</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>0.26794</v>
       </c>
     </row>
@@ -2314,7 +2320,7 @@
       <c r="A192" t="s">
         <v>99</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>0.26823</v>
       </c>
     </row>
@@ -2322,7 +2328,7 @@
       <c r="A193" t="s">
         <v>100</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>0.26872</v>
       </c>
     </row>
@@ -2330,7 +2336,7 @@
       <c r="A194" t="s">
         <v>101</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>0.26949</v>
       </c>
     </row>
@@ -2338,7 +2344,7 @@
       <c r="A195" t="s">
         <v>102</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>0.26966</v>
       </c>
     </row>
@@ -2346,7 +2352,7 @@
       <c r="A196" t="s">
         <v>91</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>0.2742</v>
       </c>
     </row>
@@ -2354,7 +2360,7 @@
       <c r="A197" t="s">
         <v>103</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>0.27436</v>
       </c>
     </row>
@@ -2362,7 +2368,7 @@
       <c r="A198" t="s">
         <v>52</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>0.27647</v>
       </c>
     </row>
@@ -2370,7 +2376,7 @@
       <c r="A199" t="s">
         <v>82</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>0.27672</v>
       </c>
     </row>
@@ -2378,7 +2384,7 @@
       <c r="A200" t="s">
         <v>104</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>0.27675</v>
       </c>
     </row>
@@ -2386,7 +2392,7 @@
       <c r="A201" t="s">
         <v>67</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>0.27709</v>
       </c>
     </row>
@@ -2394,7 +2400,7 @@
       <c r="A202" t="s">
         <v>105</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>0.27869</v>
       </c>
     </row>
@@ -2402,7 +2408,7 @@
       <c r="A203" t="s">
         <v>106</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>0.28246</v>
       </c>
     </row>
@@ -2410,7 +2416,7 @@
       <c r="A204" t="s">
         <v>97</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>0.28397</v>
       </c>
     </row>
@@ -2418,7 +2424,7 @@
       <c r="A205" t="s">
         <v>107</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>0.28446</v>
       </c>
     </row>
@@ -2426,7 +2432,7 @@
       <c r="A206" t="s">
         <v>108</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>0.28638</v>
       </c>
     </row>
@@ -2434,7 +2440,7 @@
       <c r="A207" t="s">
         <v>109</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>0.28795</v>
       </c>
     </row>
@@ -2442,7 +2448,7 @@
       <c r="A208" t="s">
         <v>110</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>0.28861</v>
       </c>
     </row>
@@ -2450,7 +2456,7 @@
       <c r="A209" t="s">
         <v>15</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>0.29283</v>
       </c>
     </row>
@@ -2458,7 +2464,7 @@
       <c r="A210" t="s">
         <v>111</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>0.29336</v>
       </c>
     </row>
@@ -2466,7 +2472,7 @@
       <c r="A211" t="s">
         <v>112</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>0.29368</v>
       </c>
     </row>
@@ -2474,7 +2480,7 @@
       <c r="A212" t="s">
         <v>81</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>0.29489</v>
       </c>
     </row>
@@ -2482,7 +2488,7 @@
       <c r="A213" t="s">
         <v>113</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>0.29592</v>
       </c>
     </row>
@@ -2490,7 +2496,7 @@
       <c r="A214" t="s">
         <v>114</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>0.30039</v>
       </c>
     </row>
@@ -2498,7 +2504,7 @@
       <c r="A215" t="s">
         <v>115</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>0.30113</v>
       </c>
     </row>
@@ -2506,7 +2512,7 @@
       <c r="A216" t="s">
         <v>116</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>0.30155</v>
       </c>
     </row>
@@ -2514,7 +2520,7 @@
       <c r="A217" t="s">
         <v>91</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>0.30457</v>
       </c>
     </row>
@@ -2522,7 +2528,7 @@
       <c r="A218" t="s">
         <v>117</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>0.30495</v>
       </c>
     </row>
@@ -2530,7 +2536,7 @@
       <c r="A219" t="s">
         <v>118</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>0.30548</v>
       </c>
     </row>
@@ -2538,7 +2544,7 @@
       <c r="A220" t="s">
         <v>119</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>0.30713</v>
       </c>
     </row>
@@ -2546,7 +2552,7 @@
       <c r="A221" t="s">
         <v>70</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>0.30958</v>
       </c>
     </row>
@@ -2554,7 +2560,7 @@
       <c r="A222" t="s">
         <v>91</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>0.31091</v>
       </c>
     </row>
@@ -2562,7 +2568,7 @@
       <c r="A223" t="s">
         <v>120</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>0.31097</v>
       </c>
     </row>
@@ -2570,7 +2576,7 @@
       <c r="A224" t="s">
         <v>121</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>0.31123</v>
       </c>
     </row>
@@ -2578,7 +2584,7 @@
       <c r="A225" t="s">
         <v>95</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>0.31195</v>
       </c>
     </row>
@@ -2586,7 +2592,7 @@
       <c r="A226" t="s">
         <v>122</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>0.31216</v>
       </c>
     </row>
@@ -2594,7 +2600,7 @@
       <c r="A227" t="s">
         <v>123</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>0.31428</v>
       </c>
     </row>
@@ -2602,7 +2608,7 @@
       <c r="A228" t="s">
         <v>124</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>0.3145</v>
       </c>
     </row>
@@ -2610,7 +2616,7 @@
       <c r="A229" t="s">
         <v>125</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>0.31986</v>
       </c>
     </row>
@@ -2618,7 +2624,7 @@
       <c r="A230" t="s">
         <v>18</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>0.32005</v>
       </c>
     </row>
@@ -2626,7 +2632,7 @@
       <c r="A231" t="s">
         <v>5</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>0.3264</v>
       </c>
     </row>
@@ -2634,7 +2640,7 @@
       <c r="A232" t="s">
         <v>126</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>0.32652</v>
       </c>
     </row>
@@ -2642,7 +2648,7 @@
       <c r="A233" t="s">
         <v>68</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>0.32843</v>
       </c>
     </row>
@@ -2650,7 +2656,7 @@
       <c r="A234" t="s">
         <v>4</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>0.3291</v>
       </c>
     </row>
@@ -2658,7 +2664,7 @@
       <c r="A235" t="s">
         <v>127</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>0.32999</v>
       </c>
     </row>
@@ -2666,7 +2672,7 @@
       <c r="A236" t="s">
         <v>29</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>0.33177</v>
       </c>
     </row>
@@ -2674,7 +2680,7 @@
       <c r="A237" t="s">
         <v>128</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>0.33245</v>
       </c>
     </row>
@@ -2682,7 +2688,7 @@
       <c r="A238" t="s">
         <v>129</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>0.33457</v>
       </c>
     </row>
@@ -2690,7 +2696,7 @@
       <c r="A239" t="s">
         <v>120</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>0.335</v>
       </c>
     </row>
@@ -2698,7 +2704,7 @@
       <c r="A240" t="s">
         <v>82</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>0.33833</v>
       </c>
     </row>
@@ -2706,7 +2712,7 @@
       <c r="A241" t="s">
         <v>130</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>0.34421</v>
       </c>
     </row>
@@ -2714,7 +2720,7 @@
       <c r="A242" t="s">
         <v>86</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>0.35171</v>
       </c>
     </row>
@@ -2722,7 +2728,7 @@
       <c r="A243" t="s">
         <v>131</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>0.35553</v>
       </c>
     </row>
@@ -2730,7 +2736,7 @@
       <c r="A244" t="s">
         <v>132</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>0.35571</v>
       </c>
     </row>
@@ -2738,7 +2744,7 @@
       <c r="A245" t="s">
         <v>3</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>0.36168</v>
       </c>
     </row>
@@ -2746,7 +2752,7 @@
       <c r="A246" t="s">
         <v>100</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>0.36701</v>
       </c>
     </row>
@@ -2754,7 +2760,7 @@
       <c r="A247" t="s">
         <v>133</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>0.37209</v>
       </c>
     </row>
@@ -2762,7 +2768,7 @@
       <c r="A248" t="s">
         <v>134</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>0.37468</v>
       </c>
     </row>
@@ -2770,7 +2776,7 @@
       <c r="A249" t="s">
         <v>123</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>0.37671</v>
       </c>
     </row>
@@ -2778,7 +2784,7 @@
       <c r="A250" t="s">
         <v>37</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>0.38243</v>
       </c>
     </row>
@@ -2786,7 +2792,7 @@
       <c r="A251" t="s">
         <v>134</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>0.3828</v>
       </c>
     </row>
@@ -2794,7 +2800,7 @@
       <c r="A252" t="s">
         <v>43</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>0.38293</v>
       </c>
     </row>
@@ -2802,7 +2808,7 @@
       <c r="A253" t="s">
         <v>91</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>0.38583</v>
       </c>
     </row>
@@ -2810,7 +2816,7 @@
       <c r="A254" t="s">
         <v>36</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>0.38658</v>
       </c>
     </row>
@@ -2818,7 +2824,7 @@
       <c r="A255" t="s">
         <v>18</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>0.39292</v>
       </c>
     </row>
@@ -2826,7 +2832,7 @@
       <c r="A256" t="s">
         <v>81</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>0.39392</v>
       </c>
     </row>
@@ -2834,7 +2840,7 @@
       <c r="A257" t="s">
         <v>134</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>0.39437</v>
       </c>
     </row>
@@ -2842,7 +2848,7 @@
       <c r="A258" t="s">
         <v>135</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>0.39521</v>
       </c>
     </row>
@@ -2850,11 +2856,11 @@
       <c r="A259" t="s">
         <v>136</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>0.39736</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>